--- a/other/count_working_time.xlsx
+++ b/other/count_working_time.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\Kogni_Tuebingen\BACHELORARBEIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\Kogni_Tuebingen\Bachelorarbeit\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3443D9D6-3F1F-4C29-A996-DEF0236EE287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4791C-429E-4435-9AE9-EDCB78D6A998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="-120" windowWidth="27750" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,8 +58,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="h:mm;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -306,46 +307,46 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,7 +632,7 @@
   <dimension ref="B1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -639,7 +640,7 @@
     <col min="1" max="1" width="20.7109375" style="1"/>
     <col min="2" max="2" width="20.7109375" style="2"/>
     <col min="3" max="4" width="20.7109375" style="3"/>
-    <col min="5" max="5" width="20.7109375" style="4"/>
+    <col min="5" max="5" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="20.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -650,12 +651,12 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -663,9 +664,9 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="8">
+      <c r="E3" s="14">
         <f>SUM($E6:E40)</f>
-        <v>9.027777777777779E-2</v>
+        <v>1.1493055555555554</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -675,19 +676,19 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
@@ -703,7 +704,7 @@
         <f>$D6-$C6</f>
         <v>4.166666666666663E-2</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -721,150 +722,249 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>44131</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333326</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>44131</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
       <c r="E9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>44132</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7.2916666666666671E-2</v>
+      </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.2916666666666671E-2</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>44132</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.53125</v>
+      </c>
       <c r="E11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.2083333333333315E-2</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>44132</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="E12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>44132</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
       <c r="E13" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>44133</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3">
+        <v>7.2916666666666671E-2</v>
+      </c>
       <c r="E14" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.2916666666666671E-2</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>44134</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
       <c r="E15" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>44135</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.11458333333333333</v>
+      </c>
       <c r="E16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0.11458333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>44135</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="E17" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>44136</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.63194444444444442</v>
+      </c>
       <c r="E18" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6.944444444444442E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E20" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -872,7 +972,7 @@
     </row>
     <row r="33" spans="5:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E33" s="7">
-        <f t="shared" ref="E7:E40" si="1">$D33-$C33</f>
+        <f t="shared" ref="E33:E40" si="1">$D33-$C33</f>
         <v>0</v>
       </c>
     </row>

--- a/other/count_working_time.xlsx
+++ b/other/count_working_time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studium\Kogni_Tuebingen\Bachelorarbeit\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F4791C-429E-4435-9AE9-EDCB78D6A998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248E7B3E-CBF8-403A-B85C-AD387136C867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="-120" windowWidth="27750" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="B1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -666,7 +666,7 @@
       <c r="D3" s="1"/>
       <c r="E3" s="14">
         <f>SUM($E6:E40)</f>
-        <v>1.1493055555555554</v>
+        <v>2.3229166666666665</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -887,51 +887,123 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>44138</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="E19" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>44139</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.875</v>
+      </c>
       <c r="E20" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>44139</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>6.25E-2</v>
+      </c>
       <c r="E21" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>44140</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.6875</v>
+      </c>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>44141</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.57638888888888895</v>
+      </c>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.7222222222222265E-2</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>44145</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.4513888888888889</v>
+      </c>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>44145</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.9375</v>
+      </c>
       <c r="E25" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>44146</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.22916666666666666</v>
+      </c>
       <c r="E26" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="27" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
